--- a/distance_graph/bee_position11.xlsx
+++ b/distance_graph/bee_position11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahin\OneDrive\Desktop\distance_graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahin\OneDrive\Desktop\Thesis\Labeled_data\distance_graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D65C82-A5CA-48E1-8BA5-40E26EA1033B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA943F2-FE8A-40AB-8189-7DF3482C583D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DC1A71DC-053E-4255-A867-3AE71FF979E6}"/>
   </bookViews>
@@ -2187,45 +2187,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2073474544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2863,16 +2830,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
